--- a/资料/SZFeedbarVision资料.xlsx
+++ b/资料/SZFeedbarVision资料.xlsx
@@ -27,7 +27,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>M3000</t>
+    <t>M6000</t>
   </si>
   <si>
     <t>产品1拍照</t>
@@ -36,7 +36,7 @@
     <t>PLC触发;上位机复位</t>
   </si>
   <si>
-    <t>M3001</t>
+    <t>M6001</t>
   </si>
   <si>
     <t>产品1拍照完成</t>
@@ -45,13 +45,13 @@
     <t>上位机触发;PLC复位</t>
   </si>
   <si>
-    <t>M3002</t>
+    <t>M6002</t>
   </si>
   <si>
     <t>产品1检测OK/NG</t>
   </si>
   <si>
-    <t>M3003</t>
+    <t>M6003</t>
   </si>
   <si>
     <t>产品2拍照</t>
@@ -60,73 +60,73 @@
     <t>同1</t>
   </si>
   <si>
-    <t>M3004</t>
+    <t>M6004</t>
   </si>
   <si>
     <t>产品2拍照完成</t>
   </si>
   <si>
-    <t>M3005</t>
+    <t>M6005</t>
   </si>
   <si>
     <t>产品2检测OK/NG</t>
   </si>
   <si>
-    <t>M3006</t>
+    <t>M6006</t>
   </si>
   <si>
     <t>产品3拍照</t>
   </si>
   <si>
-    <t>M3007</t>
+    <t>M6007</t>
   </si>
   <si>
     <t>产品3拍照完成</t>
   </si>
   <si>
-    <t>M3008</t>
+    <t>M6008</t>
   </si>
   <si>
     <t>产品3检测OK/NG</t>
   </si>
   <si>
-    <t>M3009</t>
+    <t>M6009</t>
   </si>
   <si>
     <t>产品4拍照</t>
   </si>
   <si>
-    <t>M3010</t>
+    <t>M6010</t>
   </si>
   <si>
     <t>产品4拍照完成</t>
   </si>
   <si>
-    <t>M3011</t>
+    <t>M6011</t>
   </si>
   <si>
     <t>产品4检测OK/NG</t>
   </si>
   <si>
-    <t>M3012</t>
-  </si>
-  <si>
-    <t>M3013</t>
-  </si>
-  <si>
-    <t>M3014</t>
-  </si>
-  <si>
-    <t>M3015</t>
-  </si>
-  <si>
-    <t>M3016</t>
-  </si>
-  <si>
-    <t>M3017</t>
-  </si>
-  <si>
-    <t>M3018</t>
+    <t>M6012</t>
+  </si>
+  <si>
+    <t>M6013</t>
+  </si>
+  <si>
+    <t>M6014</t>
+  </si>
+  <si>
+    <t>M6015</t>
+  </si>
+  <si>
+    <t>M6016</t>
+  </si>
+  <si>
+    <t>M6017</t>
+  </si>
+  <si>
+    <t>M6018</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
